--- a/bin/xlsx/法术表.xlsx
+++ b/bin/xlsx/法术表.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="法宝" sheetId="1" r:id="rId1"/>
+    <sheet name="法术" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>INT</t>
   </si>
@@ -38,88 +38,70 @@
     <t>name</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>power_cost</t>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>描述名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青木诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不入品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝成一柄木属性飞剑伤敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗法力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cool_down</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>物品ID</t>
-  </si>
-  <si>
-    <t>衍生等级</t>
-  </si>
-  <si>
-    <t>占用空间</t>
-  </si>
-  <si>
-    <t>耗电量</t>
-  </si>
-  <si>
-    <t>技能循环ms</t>
-  </si>
-  <si>
-    <t>射程</t>
-  </si>
-  <si>
-    <t>伤害/数值</t>
-  </si>
-  <si>
-    <t>角速度</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫青双剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌天瓶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上品灵器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上品灵宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却(ms)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -127,15 +109,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资质（不会改变）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大强化等级（随着强化增加属性）</t>
+    <t>before_cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法前摇(ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_fly_turn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术飞行回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗行动条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_attr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cast]#1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cast]#2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[cast]#3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -593,15 +635,23 @@
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
     <col min="3" max="3" width="10.06640625" customWidth="1"/>
     <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="33.86328125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.53125"/>
-    <col min="10" max="10" width="9.73046875" customWidth="1"/>
-    <col min="11" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.265625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.06640625" customWidth="1"/>
+    <col min="13" max="13" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.265625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="1026" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,31 +665,52 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -647,149 +718,206 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40100001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000001</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1.82</v>
-      </c>
-      <c r="I5">
-        <v>2100</v>
-      </c>
-      <c r="J5">
-        <v>4000</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10000002</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1.73</v>
-      </c>
-      <c r="I6">
-        <v>2100</v>
-      </c>
-      <c r="J6">
-        <v>4200</v>
-      </c>
-      <c r="K6">
-        <v>15.8</v>
-      </c>
-      <c r="L6">
-        <v>0.3</v>
-      </c>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/xlsx/法术表.xlsx
+++ b/bin/xlsx/法术表.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="法术" sheetId="1" r:id="rId1"/>
+    <sheet name="木属性法术" sheetId="1" r:id="rId1"/>
+    <sheet name="力修法术" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="43">
   <si>
     <t>INT</t>
   </si>
@@ -178,6 +179,18 @@
   </si>
   <si>
     <t>[cast]#3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛烈冲锋，撞击敌人造成少量伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,9 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -859,7 +872,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40100001</v>
+        <v>40200001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -924,4 +937,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9422EF1-872A-406E-8616-6C9CD079951D}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.53125" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40600001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>